--- a/public/Samples/Template.xlsx
+++ b/public/Samples/Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="43">
   <si>
     <t xml:space="preserve">r_id</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">phone_4</t>
   </si>
   <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupation</t>
+  </si>
+  <si>
     <t xml:space="preserve">region</t>
   </si>
   <si>
@@ -61,10 +67,13 @@
     <t xml:space="preserve">sub_location</t>
   </si>
   <si>
+    <t xml:space="preserve">constituency</t>
+  </si>
+  <si>
     <t xml:space="preserve">ward</t>
   </si>
   <si>
-    <t xml:space="preserve">constituency</t>
+    <t xml:space="preserve">setting</t>
   </si>
   <si>
     <t xml:space="preserve">gender</t>
@@ -73,25 +82,73 @@
     <t xml:space="preserve">exact_age</t>
   </si>
   <si>
+    <t xml:space="preserve">education_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marital_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethnic_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employment_status</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_group</t>
   </si>
   <si>
-    <t xml:space="preserve">setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marital_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethnic_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment_status</t>
+    <t xml:space="preserve">John Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dagoretti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half Cast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youth</t>
   </si>
 </sst>
 </file>
@@ -101,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +179,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -167,8 +238,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,93 +268,1325 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7123456789</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7123456790</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>20001</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7123456791</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>20002</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>7123456792</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>20003</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7123456793</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>20004</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7123456794</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>20005</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7123456795</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>20006</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7123456796</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>20007</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7123456797</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>20008</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>7123456798</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>20009</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>7123456799</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>20010</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>7123456800</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>20011</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>7123456801</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>20012</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7123456802</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>20013</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>7123456803</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>20014</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>7123456804</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>20015</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>7123456805</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>20016</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7123456806</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>20017</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>7123456807</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>20018</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="someone@email.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="someone@email.com"/>
+    <hyperlink ref="G4" r:id="rId3" display="someone@email.com"/>
+    <hyperlink ref="G5" r:id="rId4" display="someone@email.com"/>
+    <hyperlink ref="G6" r:id="rId5" display="someone@email.com"/>
+    <hyperlink ref="G7" r:id="rId6" display="someone@email.com"/>
+    <hyperlink ref="G8" r:id="rId7" display="someone@email.com"/>
+    <hyperlink ref="G9" r:id="rId8" display="someone@email.com"/>
+    <hyperlink ref="G10" r:id="rId9" display="someone@email.com"/>
+    <hyperlink ref="G11" r:id="rId10" display="someone@email.com"/>
+    <hyperlink ref="G12" r:id="rId11" display="someone@email.com"/>
+    <hyperlink ref="G13" r:id="rId12" display="someone@email.com"/>
+    <hyperlink ref="G14" r:id="rId13" display="someone@email.com"/>
+    <hyperlink ref="G15" r:id="rId14" display="someone@email.com"/>
+    <hyperlink ref="G16" r:id="rId15" display="someone@email.com"/>
+    <hyperlink ref="G17" r:id="rId16" display="someone@email.com"/>
+    <hyperlink ref="G18" r:id="rId17" display="someone@email.com"/>
+    <hyperlink ref="G19" r:id="rId18" display="someone@email.com"/>
+    <hyperlink ref="G20" r:id="rId19" display="someone@email.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
